--- a/documentation/simulation_parameters.xlsx
+++ b/documentation/simulation_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruffault/Dropbox/Mon Mac (MacBook-Pro-de-Julien.local)/Desktop/SurEau-Ecos_V4.0/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB808DA0-B2B5-F740-8ABD-FEF780D985D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88B99DE-8FBD-C44F-885C-DC484A40175E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="3800" windowWidth="26440" windowHeight="15440" xr2:uid="{89E9B0DF-5501-054C-89C6-021D016A59D5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>R parameter</t>
   </si>
@@ -33,82 +33,53 @@
     <t>Description</t>
   </si>
   <si>
-    <t>constantClimate</t>
-  </si>
-  <si>
-    <t>a logical value indicating whether a constant climate will be use during the simulation (default = F). If set to T, the firt line of the climate input file will be repeated to generate the climate data.frame in 'create.climate.data()'</t>
-  </si>
-  <si>
-    <t>timeStepForEvapo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a numerical value (in hours) indicating the time  step for the main evapotranspiration loop. Should be one of the following 1,2,4,6,8 (default = 1). </t>
-  </si>
-  <si>
-    <t>compOptionsForEvapo</t>
-  </si>
-  <si>
-    <t>"Normal" (Deafult), "Accurate", "Special", "Fast" or "Fast"</t>
-  </si>
-  <si>
-    <t>numericalScheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implicit' (default) or 'Xu' </t>
-  </si>
-  <si>
-    <t>ETPFormulation</t>
-  </si>
-  <si>
-    <t>the formulation of ETP to be used, either 'PT' (Priestley-Taylor) or 'P' (Penmman). Default is 'PT'. Note: Penmman formulation is not implemented yet</t>
-  </si>
-  <si>
-    <t>RnFormulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The method to be used to derive net radiation from global radiation, either 'Linacre' (default) or 'Linear' . Note : the linear method is not implemnted yet </t>
-  </si>
-  <si>
-    <t>stomatalRegFormulation</t>
-  </si>
-  <si>
-    <t>The type of regulation to be used for stomatal response to leaf symplasmic water potential, either 'Sigmoid' (default) or 'PiecewiseLinear'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avoidWaterSoilTransfer </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a logical value indicating whether the transfer of water between soil layers should be avoided by disconnecting the soil layers that get refilled from the soil-plant system (default =F). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Not implemented </t>
-    </r>
-  </si>
-  <si>
-    <t>defoliation</t>
-  </si>
-  <si>
-    <t>a logical value indicating whether trees should loose leaves when occurs.cavitation occurs of the above part of plant.  Defoliation starts only when PLC_TL &gt; 10% .</t>
-  </si>
-  <si>
-    <t>resetSWC</t>
-  </si>
-  <si>
-    <t>a logical value indicating whether soil layers should be refilled at the beginning of each year (default=F)</t>
+    <t>mainDir</t>
+  </si>
+  <si>
+    <t>startYearSimulation</t>
+  </si>
+  <si>
+    <t>endYearSimulation</t>
+  </si>
+  <si>
+    <t>a numeric indicating the starting year for the simulation (must match the dates of the input climate file)</t>
+  </si>
+  <si>
+    <t>a numeric indicating the last year for the simulation (must match the dates of the input climate file)</t>
+  </si>
+  <si>
+    <t>resolutionOutput</t>
+  </si>
+  <si>
+    <t>outputType</t>
+  </si>
+  <si>
+    <t>outputPath</t>
+  </si>
+  <si>
+    <t>overWrite</t>
+  </si>
+  <si>
+    <t>the resolution for the output simulation file. Must be 'subdaily', 'daily' or 'yearly'</t>
+  </si>
+  <si>
+    <t>a logical value indicating wether the chosen output path can be overwrittent if it already exists (default = F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the path of the ouput simulation fire  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the type of output. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the main directory of the model </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,25 +105,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -176,27 +135,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -513,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741EBB7A-8919-CF45-BF33-A7DED373856B}">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -533,84 +489,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="42">
+    <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="28">
+      <c r="B4" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="42">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" ht="28">
       <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="6" spans="2:3" ht="28">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="42">
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="28">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="28">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="42">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="42">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="28">
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/simulation_parameters.xlsx
+++ b/documentation/simulation_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruffault/Dropbox/Mon Mac (MacBook-Pro-de-Julien.local)/Desktop/SurEau-Ecos_V4.0/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88B99DE-8FBD-C44F-885C-DC484A40175E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E0AA1-2AD1-F446-B211-4A0542AB7341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="3800" windowWidth="26440" windowHeight="15440" xr2:uid="{89E9B0DF-5501-054C-89C6-021D016A59D5}"/>
+    <workbookView xWindow="1340" yWindow="1340" windowWidth="26440" windowHeight="15440" xr2:uid="{89E9B0DF-5501-054C-89C6-021D016A59D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>R parameter</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">the main directory of the model </t>
+  </si>
+  <si>
+    <t>the main directory of the model hene</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -155,6 +158,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741EBB7A-8919-CF45-BF33-A7DED373856B}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -545,6 +549,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
